--- a/tests_cases/TC-Print2-04.xlsx
+++ b/tests_cases/TC-Print2-04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\TestingAplicaciones--Jarron-Shang--TPO\tests_cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igu/Documents/UADE/Testing de aplicacioones /TestingAplicaciones-TPO/TestingAplicaciones--IDK--TPO/tests_cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD843689-43B8-4B0C-8DB8-5002DFF00BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FCF067-55F2-6845-B162-B690A3AECF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91806C60-57C8-476D-9877-9B35091507D8}"/>
+    <workbookView xWindow="-120" yWindow="760" windowWidth="29040" windowHeight="15840" xr2:uid="{91806C60-57C8-476D-9877-9B35091507D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -168,13 +168,19 @@
   </si>
   <si>
     <t>Ingresar a la pagina http://127.0.0.1:5000</t>
+  </si>
+  <si>
+    <t>Defects Created</t>
+  </si>
+  <si>
+    <t>DF-001: Home page is not displayed upon logging in</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +246,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -477,7 +490,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -555,6 +568,48 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -567,46 +622,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -925,18 +944,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8E00C0-6FD5-49B8-B4B9-31FA1938EC93}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -946,12 +965,12 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="40"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -963,7 +982,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -976,7 +995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="24" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
@@ -985,7 +1004,7 @@
       </c>
       <c r="C5" s="13"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" s="16" t="s">
         <v>27</v>
       </c>
@@ -993,7 +1012,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
         <v>27</v>
       </c>
@@ -1007,14 +1026,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="24" x14ac:dyDescent="0.2">
       <c r="A8" s="25">
         <v>1</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="18">
         <v>2</v>
       </c>
@@ -1022,14 +1041,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="25">
         <v>2</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="18">
         <v>3</v>
       </c>
@@ -1037,14 +1056,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="24" x14ac:dyDescent="0.2">
       <c r="A10" s="25">
         <v>3</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="18">
         <v>4</v>
       </c>
@@ -1052,10 +1071,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="25"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="18">
         <v>5</v>
       </c>
@@ -1063,28 +1082,28 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="26"/>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="34"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
         <v>31</v>
       </c>
@@ -1099,152 +1118,186 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="41" t="s">
+      <c r="C19" s="32"/>
+      <c r="D19" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="42"/>
-    </row>
-    <row r="20" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="30"/>
+    </row>
+    <row r="20" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
         <v>1</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="27" t="s">
+      <c r="C20" s="42"/>
+      <c r="D20" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="28"/>
-    </row>
-    <row r="21" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="42"/>
+    </row>
+    <row r="21" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <v>2</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="27" t="s">
+      <c r="C21" s="42"/>
+      <c r="D21" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="28"/>
-    </row>
-    <row r="22" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="42"/>
+    </row>
+    <row r="22" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <v>3</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="27" t="s">
+      <c r="C22" s="42"/>
+      <c r="D22" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="28"/>
-    </row>
-    <row r="23" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="42"/>
+    </row>
+    <row r="23" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
         <v>4</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="27" t="s">
+      <c r="C23" s="42"/>
+      <c r="D23" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="28"/>
-    </row>
-    <row r="24" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="42"/>
+    </row>
+    <row r="24" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <v>5</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="27" t="s">
+      <c r="C24" s="42"/>
+      <c r="D24" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="28"/>
-    </row>
-    <row r="25" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="42"/>
+    </row>
+    <row r="25" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
         <v>6</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="27" t="s">
+      <c r="C25" s="42"/>
+      <c r="D25" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="28"/>
-    </row>
-    <row r="26" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="42"/>
+    </row>
+    <row r="26" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
         <v>7</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="27" t="s">
+      <c r="C26" s="42"/>
+      <c r="D26" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="28"/>
-    </row>
-    <row r="27" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="42"/>
+    </row>
+    <row r="27" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
         <v>8</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="27" t="s">
+      <c r="C27" s="42"/>
+      <c r="D27" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="28"/>
+      <c r="E27" s="42"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="45"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="46"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:E15"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
+  <mergeCells count="31">
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests_cases/TC-Print2-04.xlsx
+++ b/tests_cases/TC-Print2-04.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/igu/Documents/UADE/Testing de aplicacioones /TestingAplicaciones-TPO/TestingAplicaciones--IDK--TPO/tests_cases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\TestingAplicaciones--Jarron-Shang--TPO\tests_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FCF067-55F2-6845-B162-B690A3AECF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041FF7A7-A525-40F8-B236-8C7F09E3D44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="760" windowWidth="29040" windowHeight="15840" xr2:uid="{91806C60-57C8-476D-9877-9B35091507D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91806C60-57C8-476D-9877-9B35091507D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -170,17 +170,41 @@
     <t>Ingresar a la pagina http://127.0.0.1:5000</t>
   </si>
   <si>
-    <t>Defects Created</t>
-  </si>
-  <si>
-    <t>DF-001: Home page is not displayed upon logging in</t>
+    <t>Executions</t>
+  </si>
+  <si>
+    <t>Regression 1</t>
+  </si>
+  <si>
+    <t>Tester: Ignacio Tsai</t>
+  </si>
+  <si>
+    <t>Actual Results</t>
+  </si>
+  <si>
+    <t>Pass / Fail / Not executed / Suspended</t>
+  </si>
+  <si>
+    <t>As Expected</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Not tested (Mr or Ms)</t>
+  </si>
+  <si>
+    <t>Not executed</t>
+  </si>
+  <si>
+    <t>No 100% como se esperaba, pero sale un popup de error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +227,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -247,14 +272,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,8 +306,18 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -484,13 +534,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -568,6 +718,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -616,20 +802,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
+    <cellStyle name="Entrada" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{985E78E4-F5BD-4F79-B8FA-76A338C263B8}"/>
     <cellStyle name="Note 2" xfId="1" xr:uid="{2844F2CA-0927-49CD-8015-FD7150AED510}"/>
@@ -944,18 +1120,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8E00C0-6FD5-49B8-B4B9-31FA1938EC93}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B37"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,12 +1141,12 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E1" s="40"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -982,7 +1158,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -995,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>8</v>
       </c>
@@ -1004,7 +1180,7 @@
       </c>
       <c r="C5" s="13"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D6" s="16" t="s">
         <v>27</v>
       </c>
@@ -1012,7 +1188,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>27</v>
       </c>
@@ -1026,14 +1202,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>1</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="44"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="18">
         <v>2</v>
       </c>
@@ -1041,14 +1217,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>2</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="44"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="18">
         <v>3</v>
       </c>
@@ -1056,14 +1232,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>3</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="44"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="18">
         <v>4</v>
       </c>
@@ -1071,10 +1247,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A11" s="25"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="18">
         <v>5</v>
       </c>
@@ -1082,28 +1258,28 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="26"/>
     </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="46"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>31</v>
       </c>
@@ -1118,161 +1294,290 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="29" t="s">
+      <c r="C19" s="44"/>
+      <c r="D19" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="30"/>
-    </row>
-    <row r="20" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="42"/>
+    </row>
+    <row r="20" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>1</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="41" t="s">
+      <c r="C20" s="54"/>
+      <c r="D20" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="42"/>
-    </row>
-    <row r="21" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="54"/>
+    </row>
+    <row r="21" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>2</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="41" t="s">
+      <c r="C21" s="54"/>
+      <c r="D21" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="42"/>
-    </row>
-    <row r="22" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="54"/>
+    </row>
+    <row r="22" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>3</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="41" t="s">
+      <c r="C22" s="54"/>
+      <c r="D22" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="42"/>
-    </row>
-    <row r="23" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="54"/>
+    </row>
+    <row r="23" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>4</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="41" t="s">
+      <c r="C23" s="54"/>
+      <c r="D23" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="42"/>
-    </row>
-    <row r="24" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="54"/>
+    </row>
+    <row r="24" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>5</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="41" t="s">
+      <c r="C24" s="54"/>
+      <c r="D24" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="42"/>
-    </row>
-    <row r="25" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="54"/>
+    </row>
+    <row r="25" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>6</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="41" t="s">
+      <c r="C25" s="54"/>
+      <c r="D25" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="42"/>
-    </row>
-    <row r="26" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E25" s="54"/>
+    </row>
+    <row r="26" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>7</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="41" t="s">
+      <c r="C26" s="54"/>
+      <c r="D26" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="42"/>
-    </row>
-    <row r="27" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E26" s="54"/>
+    </row>
+    <row r="27" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>8</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="41" t="s">
+      <c r="C27" s="54"/>
+      <c r="D27" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="42"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="45" t="s">
+      <c r="E27" s="54"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="45"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="46" t="s">
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="46"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="46"/>
-      <c r="B35" s="46"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="46"/>
-      <c r="B36" s="46"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="46"/>
-      <c r="B37" s="46"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="34"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="30"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="30"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="30"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="30"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="30"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="30"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="30"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
+  <mergeCells count="46">
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D26:E26"/>
@@ -1298,6 +1603,27 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:H38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests_cases/TC-Print2-04.xlsx
+++ b/tests_cases/TC-Print2-04.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\TestingAplicaciones--Jarron-Shang--TPO\tests_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041FF7A7-A525-40F8-B236-8C7F09E3D44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BA658C-0900-45A6-BFE5-803903133139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91806C60-57C8-476D-9877-9B35091507D8}"/>
   </bookViews>
@@ -134,9 +134,6 @@
     <t>User Stories covered</t>
   </si>
   <si>
-    <t>HU-2, HU-3</t>
-  </si>
-  <si>
     <t>Automation Status</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>No 100% como se esperaba, pero sale un popup de error</t>
+  </si>
+  <si>
+    <t>PE-16</t>
   </si>
 </sst>
 </file>
@@ -697,12 +697,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -718,89 +712,95 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="24" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1122,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8E00C0-6FD5-49B8-B4B9-31FA1938EC93}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,10 +1141,10 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1189,27 +1189,27 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>35</v>
+      <c r="B7" s="22" t="s">
+        <v>34</v>
       </c>
       <c r="D7" s="18">
         <v>1</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="A8" s="23">
         <v>1</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="28"/>
+      <c r="B8" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="42"/>
       <c r="D8" s="18">
         <v>2</v>
       </c>
@@ -1218,13 +1218,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+      <c r="A9" s="23">
         <v>2</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="28"/>
+      <c r="B9" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="42"/>
       <c r="D9" s="18">
         <v>3</v>
       </c>
@@ -1233,65 +1233,65 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
+      <c r="A10" s="23">
         <v>3</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="28"/>
+      <c r="B10" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="42"/>
       <c r="D10" s="18">
         <v>4</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="18">
         <v>5</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
+      <c r="A12" s="24"/>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
     </row>
     <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="54"/>
+      <c r="D16" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="19" t="s">
+      <c r="E16" s="20" t="s">
         <v>33</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1300,284 +1300,315 @@
       <c r="A19" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="41" t="s">
+      <c r="C19" s="32"/>
+      <c r="D19" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="42"/>
+      <c r="E19" s="30"/>
     </row>
     <row r="20" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>1</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="53" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="54"/>
+      <c r="E20" s="26"/>
     </row>
     <row r="21" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>2</v>
       </c>
-      <c r="B21" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="53" t="s">
+      <c r="B21" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="54"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>3</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="53" t="s">
+      <c r="C22" s="26"/>
+      <c r="D22" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="54"/>
+      <c r="E22" s="26"/>
     </row>
     <row r="23" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>4</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="53" t="s">
+      <c r="C23" s="26"/>
+      <c r="D23" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="54"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>5</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="53" t="s">
+      <c r="C24" s="26"/>
+      <c r="D24" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="54"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>6</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="53" t="s">
+      <c r="C25" s="26"/>
+      <c r="D25" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="54"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>7</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="53" t="s">
+      <c r="C26" s="26"/>
+      <c r="D26" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="54"/>
+      <c r="E26" s="26"/>
     </row>
     <row r="27" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>8</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="54"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="26"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-    </row>
-    <row r="30" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="32" t="s">
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="46"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="34"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="49"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38" t="s">
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="28" t="s">
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="52"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="52"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="52"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="52"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="30"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="52"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="30"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="52"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="30"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="52"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="30"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="30"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="30"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="30"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="30"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="52"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="47">
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D26:E26"/>
@@ -1594,36 +1625,6 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:E15"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:H39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="E40:H40"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="E38:H38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
